--- a/currentbuild/StructureDefinition-legemiddel-classification.xlsx
+++ b/currentbuild/StructureDefinition-legemiddel-classification.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-legemiddel-classification.xlsx
+++ b/currentbuild/StructureDefinition-legemiddel-classification.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-legemiddel-classification.xlsx
+++ b/currentbuild/StructureDefinition-legemiddel-classification.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-04-11</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-legemiddel-classification.xlsx
+++ b/currentbuild/StructureDefinition-legemiddel-classification.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-legemiddel-classification.xlsx
+++ b/currentbuild/StructureDefinition-legemiddel-classification.xlsx
@@ -1270,7 +1270,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1375,12 +1375,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK6">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
